--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件调解件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件调解件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,691 +493,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>52554</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7426</v>
+      </c>
       <c r="D2" t="n">
-        <v>550466</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>698900</v>
+      </c>
+      <c r="E2" t="n">
+        <v>673749</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31082</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11502</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15935</v>
+      </c>
+      <c r="I2" t="n">
+        <v>567374</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25151</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11237</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74568</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30257</v>
+      </c>
       <c r="D3" t="n">
-        <v>552005</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>768238</v>
+      </c>
+      <c r="E3" t="n">
+        <v>715698</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30246</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12152</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20253</v>
+      </c>
+      <c r="I3" t="n">
+        <v>588035</v>
+      </c>
+      <c r="J3" t="n">
+        <v>52540</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10697</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2030</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75385</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38599</v>
+      </c>
       <c r="D4" t="n">
-        <v>506602</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>803919</v>
+      </c>
+      <c r="E4" t="n">
+        <v>739240</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29014</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12120</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23794</v>
+      </c>
+      <c r="I4" t="n">
+        <v>612304</v>
+      </c>
+      <c r="J4" t="n">
+        <v>64679</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10417</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22459</v>
+        <v>55522</v>
       </c>
       <c r="C5" t="n">
-        <v>2152</v>
+        <v>23933</v>
       </c>
       <c r="D5" t="n">
-        <v>512923</v>
+        <v>770437</v>
       </c>
       <c r="E5" t="n">
-        <v>507193</v>
+        <v>713186</v>
       </c>
       <c r="F5" t="n">
-        <v>20173</v>
+        <v>30280</v>
       </c>
       <c r="G5" t="n">
-        <v>10659</v>
+        <v>12297</v>
       </c>
       <c r="H5" t="n">
-        <v>3237</v>
+        <v>30478</v>
       </c>
       <c r="I5" t="n">
-        <v>440360</v>
+        <v>605491</v>
       </c>
       <c r="J5" t="n">
-        <v>5730</v>
+        <v>57251</v>
       </c>
       <c r="K5" t="n">
-        <v>13542</v>
+        <v>9596</v>
       </c>
       <c r="L5" t="n">
-        <v>341</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23168</v>
+        <v>55543</v>
       </c>
       <c r="C6" t="n">
-        <v>2624</v>
+        <v>14261</v>
       </c>
       <c r="D6" t="n">
-        <v>533819</v>
+        <v>724776</v>
       </c>
       <c r="E6" t="n">
-        <v>526883</v>
+        <v>672592</v>
       </c>
       <c r="F6" t="n">
-        <v>22871</v>
+        <v>31242</v>
       </c>
       <c r="G6" t="n">
-        <v>10010</v>
+        <v>11425</v>
       </c>
       <c r="H6" t="n">
-        <v>3875</v>
+        <v>34839</v>
       </c>
       <c r="I6" t="n">
-        <v>458688</v>
+        <v>565857</v>
       </c>
       <c r="J6" t="n">
-        <v>6936</v>
+        <v>52184</v>
       </c>
       <c r="K6" t="n">
-        <v>12146</v>
+        <v>8525</v>
       </c>
       <c r="L6" t="n">
-        <v>437</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27138</v>
+        <v>56196</v>
       </c>
       <c r="C7" t="n">
-        <v>3660</v>
+        <v>17758</v>
       </c>
       <c r="D7" t="n">
-        <v>560830</v>
+        <v>706628</v>
       </c>
       <c r="E7" t="n">
-        <v>551734</v>
+        <v>648773</v>
       </c>
       <c r="F7" t="n">
-        <v>25146</v>
+        <v>32245</v>
       </c>
       <c r="G7" t="n">
-        <v>10959</v>
+        <v>11753</v>
       </c>
       <c r="H7" t="n">
-        <v>4844</v>
+        <v>37443</v>
       </c>
       <c r="I7" t="n">
-        <v>477132</v>
+        <v>540919</v>
       </c>
       <c r="J7" t="n">
-        <v>9096</v>
+        <v>57855</v>
       </c>
       <c r="K7" t="n">
-        <v>11359</v>
+        <v>7660</v>
       </c>
       <c r="L7" t="n">
-        <v>592</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34105</v>
+        <v>52629</v>
       </c>
       <c r="C8" t="n">
-        <v>4271</v>
+        <v>20669</v>
       </c>
       <c r="D8" t="n">
-        <v>613379</v>
+        <v>674866</v>
       </c>
       <c r="E8" t="n">
-        <v>598138</v>
+        <v>611516</v>
       </c>
       <c r="F8" t="n">
-        <v>27744</v>
+        <v>32715</v>
       </c>
       <c r="G8" t="n">
-        <v>12395</v>
+        <v>12223</v>
       </c>
       <c r="H8" t="n">
-        <v>10116</v>
+        <v>40249</v>
       </c>
       <c r="I8" t="n">
-        <v>512222</v>
+        <v>506812</v>
       </c>
       <c r="J8" t="n">
-        <v>15241</v>
+        <v>63350</v>
       </c>
       <c r="K8" t="n">
-        <v>11672</v>
+        <v>7137</v>
       </c>
       <c r="L8" t="n">
-        <v>854</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42848</v>
+        <v>55345</v>
       </c>
       <c r="C9" t="n">
-        <v>5046</v>
+        <v>29060</v>
       </c>
       <c r="D9" t="n">
-        <v>659065</v>
+        <v>676606</v>
       </c>
       <c r="E9" t="n">
-        <v>641026</v>
+        <v>601476</v>
       </c>
       <c r="F9" t="n">
-        <v>28965</v>
+        <v>2374</v>
       </c>
       <c r="G9" t="n">
-        <v>11792</v>
+        <v>44874</v>
       </c>
       <c r="H9" t="n">
-        <v>11635</v>
+        <v>42483</v>
       </c>
       <c r="I9" t="n">
-        <v>545700</v>
+        <v>489559</v>
       </c>
       <c r="J9" t="n">
-        <v>18039</v>
+        <v>73949</v>
       </c>
       <c r="K9" t="n">
-        <v>11721</v>
+        <v>7267</v>
       </c>
       <c r="L9" t="n">
-        <v>1358</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52554</v>
+        <v>57757</v>
       </c>
       <c r="C10" t="n">
-        <v>7426</v>
+        <v>36867</v>
       </c>
       <c r="D10" t="n">
-        <v>698900</v>
+        <v>692657</v>
       </c>
       <c r="E10" t="n">
-        <v>673749</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31082</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11502</v>
-      </c>
+        <v>601003</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>15935</v>
+        <v>51392</v>
       </c>
       <c r="I10" t="n">
-        <v>567374</v>
+        <v>479184</v>
       </c>
       <c r="J10" t="n">
-        <v>25151</v>
+        <v>90909</v>
       </c>
       <c r="K10" t="n">
-        <v>11237</v>
+        <v>7470</v>
       </c>
       <c r="L10" t="n">
-        <v>1790</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74568</v>
+        <v>57588</v>
       </c>
       <c r="C11" t="n">
-        <v>30257</v>
+        <v>37369</v>
       </c>
       <c r="D11" t="n">
-        <v>768238</v>
+        <v>701338</v>
       </c>
       <c r="E11" t="n">
-        <v>715698</v>
-      </c>
-      <c r="F11" t="n">
-        <v>30246</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12152</v>
-      </c>
+        <v>610525</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>20253</v>
+        <v>50110</v>
       </c>
       <c r="I11" t="n">
-        <v>588035</v>
+        <v>480926</v>
       </c>
       <c r="J11" t="n">
-        <v>52540</v>
+        <v>90190</v>
       </c>
       <c r="K11" t="n">
-        <v>10697</v>
+        <v>7904</v>
       </c>
       <c r="L11" t="n">
-        <v>2030</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75385</v>
+        <v>50116</v>
       </c>
       <c r="C12" t="n">
-        <v>38599</v>
+        <v>30818</v>
       </c>
       <c r="D12" t="n">
-        <v>803919</v>
+        <v>624863</v>
       </c>
       <c r="E12" t="n">
-        <v>739240</v>
-      </c>
-      <c r="F12" t="n">
-        <v>29014</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12120</v>
-      </c>
+        <v>553421</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>23794</v>
+        <v>37903</v>
       </c>
       <c r="I12" t="n">
-        <v>612304</v>
+        <v>441114</v>
       </c>
       <c r="J12" t="n">
-        <v>64679</v>
+        <v>70935</v>
       </c>
       <c r="K12" t="n">
-        <v>10417</v>
+        <v>6370</v>
       </c>
       <c r="L12" t="n">
-        <v>2286</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55522</v>
+        <v>47403</v>
       </c>
       <c r="C13" t="n">
-        <v>23933</v>
+        <v>24425</v>
       </c>
       <c r="D13" t="n">
-        <v>770437</v>
+        <v>718798</v>
       </c>
       <c r="E13" t="n">
-        <v>713186</v>
-      </c>
-      <c r="F13" t="n">
-        <v>30280</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12297</v>
-      </c>
+        <v>658007</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>30478</v>
+        <v>32813</v>
       </c>
       <c r="I13" t="n">
-        <v>605491</v>
+        <v>546865</v>
       </c>
       <c r="J13" t="n">
-        <v>57251</v>
+        <v>59952</v>
       </c>
       <c r="K13" t="n">
-        <v>9596</v>
+        <v>6848</v>
       </c>
       <c r="L13" t="n">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>55543</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14261</v>
-      </c>
-      <c r="D14" t="n">
-        <v>724776</v>
-      </c>
-      <c r="E14" t="n">
-        <v>672592</v>
-      </c>
-      <c r="F14" t="n">
-        <v>31242</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11425</v>
-      </c>
-      <c r="H14" t="n">
-        <v>34839</v>
-      </c>
-      <c r="I14" t="n">
-        <v>565857</v>
-      </c>
-      <c r="J14" t="n">
-        <v>52184</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8525</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>56196</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17758</v>
-      </c>
-      <c r="D15" t="n">
-        <v>706628</v>
-      </c>
-      <c r="E15" t="n">
-        <v>648773</v>
-      </c>
-      <c r="F15" t="n">
-        <v>32245</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11753</v>
-      </c>
-      <c r="H15" t="n">
-        <v>37443</v>
-      </c>
-      <c r="I15" t="n">
-        <v>540919</v>
-      </c>
-      <c r="J15" t="n">
-        <v>57855</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7660</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>52629</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20669</v>
-      </c>
-      <c r="D16" t="n">
-        <v>674866</v>
-      </c>
-      <c r="E16" t="n">
-        <v>611516</v>
-      </c>
-      <c r="F16" t="n">
-        <v>32715</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12223</v>
-      </c>
-      <c r="H16" t="n">
-        <v>40249</v>
-      </c>
-      <c r="I16" t="n">
-        <v>506812</v>
-      </c>
-      <c r="J16" t="n">
-        <v>63350</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7137</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>55345</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29060</v>
-      </c>
-      <c r="D17" t="n">
-        <v>676606</v>
-      </c>
-      <c r="E17" t="n">
-        <v>601476</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2374</v>
-      </c>
-      <c r="G17" t="n">
-        <v>44874</v>
-      </c>
-      <c r="H17" t="n">
-        <v>42483</v>
-      </c>
-      <c r="I17" t="n">
-        <v>489559</v>
-      </c>
-      <c r="J17" t="n">
-        <v>73949</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7267</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>57757</v>
-      </c>
-      <c r="C18" t="n">
-        <v>36867</v>
-      </c>
-      <c r="D18" t="n">
-        <v>692657</v>
-      </c>
-      <c r="E18" t="n">
-        <v>601003</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>51392</v>
-      </c>
-      <c r="I18" t="n">
-        <v>479184</v>
-      </c>
-      <c r="J18" t="n">
-        <v>90909</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7470</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>57588</v>
-      </c>
-      <c r="C19" t="n">
-        <v>37369</v>
-      </c>
-      <c r="D19" t="n">
-        <v>701338</v>
-      </c>
-      <c r="E19" t="n">
-        <v>610525</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>50110</v>
-      </c>
-      <c r="I19" t="n">
-        <v>480926</v>
-      </c>
-      <c r="J19" t="n">
-        <v>90190</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7904</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>50116</v>
-      </c>
-      <c r="C20" t="n">
-        <v>30818</v>
-      </c>
-      <c r="D20" t="n">
-        <v>624863</v>
-      </c>
-      <c r="E20" t="n">
-        <v>553421</v>
-      </c>
-      <c r="F20" t="n">
-        <v>52342</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>37903</v>
-      </c>
-      <c r="I20" t="n">
-        <v>441114</v>
-      </c>
-      <c r="J20" t="n">
-        <v>70935</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6370</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2214</v>
+        <v>2714</v>
       </c>
     </row>
   </sheetData>
